--- a/output/Horas_catedra.xlsx
+++ b/output/Horas_catedra.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{28AC6951-25FF-44C9-8096-2EFD49324C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -373,15 +373,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F305" totalsRowShown="0">
-  <autoFilter ref="A1:F305"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F305" totalsRowShown="0">
+  <autoFilter ref="A1:F305" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="año"/>
-    <tableColumn id="2" name="periodo"/>
-    <tableColumn id="3" name="codfac"/>
-    <tableColumn id="4" name="Nombre fac"/>
-    <tableColumn id="5" name="Nro contratos" dataDxfId="1"/>
-    <tableColumn id="6" name="Total horas" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="año"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="periodo"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codfac"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nombre fac"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nro contratos" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total horas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,11 +683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
